--- a/medicine/Psychotrope/Afélia/Afélia.xlsx
+++ b/medicine/Psychotrope/Afélia/Afélia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Af%C3%A9lia</t>
+          <t>Afélia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'afélia, mets emblématique de Chypre, est un ragoût de porc mariné au vin rouge et relevé avec des graines de coriandre.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Af%C3%A9lia</t>
+          <t>Afélia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Ingrédients</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Outre le filet de porc, ce mets nécessite du vin rouge, des graines de coriandre, de l'huile d'olive, du sel et du poivre[2].
-À Chypre, la présence de Britanniques avait fait substituer du beurre à l'huile d'olive. Or ce mets doit être impérativement cuit à l'huile d'olive pour acquérir sa saveur[2]. Les graines de coriandre, épice douce, ajoutent des notes d'agrume. Elles sont très utilisées dans les recettes traditionnelles de Chypre ou de Grèce[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre le filet de porc, ce mets nécessite du vin rouge, des graines de coriandre, de l'huile d'olive, du sel et du poivre.
+À Chypre, la présence de Britanniques avait fait substituer du beurre à l'huile d'olive. Or ce mets doit être impérativement cuit à l'huile d'olive pour acquérir sa saveur. Les graines de coriandre, épice douce, ajoutent des notes d'agrume. Elles sont très utilisées dans les recettes traditionnelles de Chypre ou de Grèce.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Af%C3%A9lia</t>
+          <t>Afélia</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il faut faire mariner le filet de porc coupé en gros morceaux avec le vin rouge pendant quatre heures. Les morceaux sont ensuite dorés à l'huile d'olive. La cuisson se fait d'abord à vif pour saisir la viande puis la préparation est mise à mijoter pendant une heure[2].
-Il existe une autre méthode de préparation, typiquement chypriote, où ce mets est cuit dans un plat en terre (appelé tava) dans un four d'argile[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il faut faire mariner le filet de porc coupé en gros morceaux avec le vin rouge pendant quatre heures. Les morceaux sont ensuite dorés à l'huile d'olive. La cuisson se fait d'abord à vif pour saisir la viande puis la préparation est mise à mijoter pendant une heure.
+Il existe une autre méthode de préparation, typiquement chypriote, où ce mets est cuit dans un plat en terre (appelé tava) dans un four d'argile.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Af%C3%A9lia</t>
+          <t>Afélia</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Accord mets/vin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est de tradition de servir ce mets avec le même vin qui a été utilisé pour la marinade. Sinon, les amateurs peuvent tenter un mariage avec du vin blanc à base de chardonnay, sauvignon ou riesling.
 </t>
